--- a/Inputs/PFHxS_template_parameters_Model.xlsx
+++ b/Inputs/PFHxS_template_parameters_Model.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/bernstein_amanda_epa_gov/Documents/Documents/PKWG_models/pbpk_template_project/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/schlosser_paul_epa_gov/Documents/mcsim-5.6.5/PBPK_Model_Template_Mod/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{A8B2F238-D33B-4FEC-9703-7111E6A737BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DB9DA90-D60E-459B-9F41-FD58A7793D09}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{A8B2F238-D33B-4FEC-9703-7111E6A737BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1565077D-AF88-4129-9C11-D87AF980FB92}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{089E7848-11EB-427A-89EA-83825F220BA0}"/>
+    <workbookView xWindow="-22110" yWindow="1155" windowWidth="19785" windowHeight="13830" xr2:uid="{089E7848-11EB-427A-89EA-83825F220BA0}"/>
   </bookViews>
   <sheets>
-    <sheet name="MKimRecreateBW" sheetId="9" r:id="rId1"/>
-    <sheet name="FKimRecreateBW" sheetId="10" r:id="rId2"/>
+    <sheet name="FKimRecreateBW_univ" sheetId="12" r:id="rId1"/>
+    <sheet name="MKimRecreateBW_univ" sheetId="11" r:id="rId2"/>
+    <sheet name="MKimRecreateBW" sheetId="9" r:id="rId3"/>
+    <sheet name="FKimRecreateBW" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="243">
   <si>
     <t>Code</t>
   </si>
@@ -754,6 +756,15 @@
   </si>
   <si>
     <t>num.blood.comp</t>
+  </si>
+  <si>
+    <t>"muscle + adipose + spleen</t>
+  </si>
+  <si>
+    <t>"2580" listed, sum of blood flows except lung &amp; filtrate:</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -769,7 +780,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,6 +799,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -801,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -809,11 +826,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -947,10 +1086,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -988,7 +1131,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1094,7 +1237,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1236,35 +1379,3309 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C36BD8E-90D1-448D-9323-3F8C9546E920}">
+  <dimension ref="A1:G104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="13.703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.46875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.05859375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.52734375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.703125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="4">
+        <f>1-SUM(E76:E85)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUM(E61:E75)</f>
+        <v>0.70472000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>400.12</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A22" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-0.25</v>
+      </c>
+      <c r="E22" s="4">
+        <f>E21-1</f>
+        <v>-0.25</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-0.25</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <f>F24/(G20^E20)</f>
+        <v>7240.773439350246</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2560</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="G25" s="6">
+        <f>SUM(F76:F78,F80:F81,F85)</f>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <f>F26/(G20^E21)</f>
+        <v>2573.8686835190329</v>
+      </c>
+      <c r="F26" s="4">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>15851</v>
+      </c>
+      <c r="F27" s="4">
+        <v>15851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A29" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <f>F29/(G20^E23)</f>
+        <v>0.41790010768124958</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A30" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <f>E58*F30/E87</f>
+        <v>2.2402807017543855</v>
+      </c>
+      <c r="F30" s="4">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A31" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <f>F37/(G20^E23)</f>
+        <v>81.812254583283561</v>
+      </c>
+      <c r="F37" s="4">
+        <v>115.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A39" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A41" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A44" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A45" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A50" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A52" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <f>F52/F24</f>
+        <v>0.1015625</v>
+      </c>
+      <c r="F52" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A53" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A54" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A55" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A56" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A57" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>6.9399999999999996E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <f>F61/(G20*1000)</f>
+        <v>8.1599999999999992E-2</v>
+      </c>
+      <c r="F61" s="4">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A63" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A64" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6">
+        <f>F69/(G20*1000)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A65" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <f>F65/(G20*1000)</f>
+        <v>0.04</v>
+      </c>
+      <c r="F65" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A66" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <f>F66/(G20*1000)</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F66" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A67" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <f>F67/(G20*1000)</f>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A68" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <f>F68/(G20*1000)</f>
+        <v>7.1999999999999994E-4</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A69" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <f>F70/(G20*1000)</f>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <f>F71/(G20*1000)</f>
+        <v>2.8E-3</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A72" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A73" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A74" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A75" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <f>F75/(G20*1000)</f>
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="F75" s="4">
+        <v>133.30000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A76" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <f>F76/F24</f>
+        <v>0.17578125</v>
+      </c>
+      <c r="F76" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A77" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <f>F77/F24</f>
+        <v>0.32343749999999999</v>
+      </c>
+      <c r="F77" s="4">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A78" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <f>F78/F24</f>
+        <v>0.203125</v>
+      </c>
+      <c r="F78" s="4">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A79" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="4">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A80" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <f>F80/F24</f>
+        <v>9.1406249999999994E-2</v>
+      </c>
+      <c r="F80" s="4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A81" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <f>F81/F24</f>
+        <v>7.0312500000000002E-3</v>
+      </c>
+      <c r="F81" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A82" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A83" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A84" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A85" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <f>F85/F24</f>
+        <v>0.19921875</v>
+      </c>
+      <c r="F85" s="4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A86" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A87" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A88" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A89" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A90" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A91" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A92" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="4">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A93" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A94" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A95" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A96" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A98" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A99" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A101" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A103" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A104" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+      <formula>1.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="between">
+      <formula>0.8</formula>
+      <formula>1.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4968BA-79ED-4C3B-9559-331A91CB100B}">
+  <dimension ref="A1:G104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="13.703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.46875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.05859375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.46875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.52734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.52734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.9375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="4">
+        <f>1-SUM(E76:E85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUM(E61:E75)</f>
+        <v>0.70472000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>400.12</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A22" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-0.25</v>
+      </c>
+      <c r="E22" s="4">
+        <f>E21-1</f>
+        <v>-0.25</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-0.25</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <f>F24/(G20^E20)</f>
+        <v>7240.773439350246</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2560</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="G25" s="6">
+        <f>SUM(F76:F78,F80:F81,F85)</f>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <f>F26/(G20^E21)</f>
+        <v>241264.83374085001</v>
+      </c>
+      <c r="F26" s="4">
+        <v>85300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>15851</v>
+      </c>
+      <c r="F27" s="4">
+        <v>15851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A29" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <f>F29/(G20^E23)</f>
+        <v>0.17677669529663689</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A30" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <f>E58*F30/E87</f>
+        <v>5.2275862068965518E-4</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A31" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3.73</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <f>F37/(G20^E23)</f>
+        <v>7.4246212024587495</v>
+      </c>
+      <c r="F37" s="4">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A39" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A41" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A44" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A45" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A50" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A52" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <f>F52/F24</f>
+        <v>0.1015625</v>
+      </c>
+      <c r="F52" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A53" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A54" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A55" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A56" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A57" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>7.5799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <f>F61/(G20*1000)</f>
+        <v>8.1599999999999992E-2</v>
+      </c>
+      <c r="F61" s="4">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A63" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A64" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6">
+        <f>F69/(G20*1000)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A65" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <f>F65/(G20*1000)</f>
+        <v>0.04</v>
+      </c>
+      <c r="F65" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A66" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <f>F66/(G20*1000)</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F66" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A67" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <f>F67/(G20*1000)</f>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A68" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <f>F68/(G20*1000)</f>
+        <v>7.1999999999999994E-4</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A69" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <f>F70/(G20*1000)</f>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <f>F71/(G20*1000)</f>
+        <v>2.8E-3</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A72" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A73" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A74" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A75" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <f>F75/(G20*1000)</f>
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="F75" s="4">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A76" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <f>F76/F$24</f>
+        <v>0.17578125</v>
+      </c>
+      <c r="F76" s="8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A77" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <f>F77/F$24</f>
+        <v>0.32343749999999999</v>
+      </c>
+      <c r="F77" s="8">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A78" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" ref="E78:E81" si="0">F78/F$24</f>
+        <v>0.203125</v>
+      </c>
+      <c r="F78" s="8">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A79" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="4">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A80" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1406249999999994E-2</v>
+      </c>
+      <c r="F80" s="8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A81" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0312500000000002E-3</v>
+      </c>
+      <c r="F81" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A82" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A83" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A84" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A85" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" ref="E85" si="1">F85/F$24</f>
+        <v>0.19921875</v>
+      </c>
+      <c r="F85" s="8">
+        <v>510</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A86" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A87" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A88" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A89" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A90" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A91" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A92" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A93" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A94" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A95" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A96" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="E96" s="4">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A98" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A99" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A101" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A103" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A104" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+      <formula>1.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+      <formula>0.8</formula>
+      <formula>1.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADCAA70-43B6-4F02-AE2A-67A6EACE5958}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.46875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.05859375" customWidth="1"/>
+    <col min="5" max="5" width="22.29296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.29296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.46875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.52734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +4701,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1298,7 +4715,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1309,7 +4726,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +4737,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1337,7 +4754,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1354,7 +4771,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1368,7 +4785,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1382,7 +4799,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>239</v>
       </c>
@@ -1399,7 +4816,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
@@ -1416,7 +4833,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
@@ -1433,7 +4850,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>171</v>
       </c>
@@ -1450,7 +4867,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
@@ -1467,7 +4884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>163</v>
       </c>
@@ -1484,7 +4901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>189</v>
       </c>
@@ -1496,10 +4913,10 @@
       </c>
       <c r="E15">
         <f>1-SUM(E76:E85)</f>
-        <v>-0.99224806201550386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>192</v>
       </c>
@@ -1514,7 +4931,7 @@
         <v>0.70472000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +4951,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -1554,7 +4971,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1571,7 +4988,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1585,7 +5002,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A22" s="5" t="s">
         <v>231</v>
       </c>
@@ -1603,7 +5020,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1617,7 +5034,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1632,13 +5049,17 @@
       </c>
       <c r="E24">
         <f>F24/(G20^E20)</f>
-        <v>7297.3419818451703</v>
+        <v>14538.115421195416</v>
       </c>
       <c r="F24">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <f>2580+2560</f>
+        <v>5140</v>
+      </c>
+      <c r="G24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1651,8 +5072,12 @@
       <c r="E25" s="4">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <f>234+18+24+450+520+450+828+36</f>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>139</v>
       </c>
@@ -1673,7 +5098,7 @@
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>140</v>
       </c>
@@ -1693,7 +5118,7 @@
         <v>15851</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1707,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -1728,7 +5153,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
@@ -1752,7 +5177,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
@@ -1766,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -1786,7 +5211,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -1800,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -1814,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -1828,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>164</v>
       </c>
@@ -1842,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -1863,7 +5288,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>227</v>
       </c>
@@ -1877,7 +5302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>228</v>
       </c>
@@ -1891,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>229</v>
       </c>
@@ -1905,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>144</v>
       </c>
@@ -1919,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>145</v>
       </c>
@@ -1933,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>146</v>
       </c>
@@ -1947,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
         <v>147</v>
       </c>
@@ -1961,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
         <v>148</v>
       </c>
@@ -1975,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>149</v>
       </c>
@@ -1989,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
         <v>150</v>
       </c>
@@ -2003,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>151</v>
       </c>
@@ -2017,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
@@ -2028,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
         <v>167</v>
       </c>
@@ -2039,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
@@ -2050,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
         <v>181</v>
       </c>
@@ -2065,13 +5490,13 @@
       </c>
       <c r="E52">
         <f>F52/F24</f>
-        <v>0.10077519379844961</v>
+        <v>5.0583657587548639E-2</v>
       </c>
       <c r="F52">
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
         <v>159</v>
       </c>
@@ -2085,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -2096,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>195</v>
       </c>
@@ -2110,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>197</v>
       </c>
@@ -2124,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A57" s="5" t="s">
         <v>234</v>
       </c>
@@ -2141,7 +5566,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A58" s="5" t="s">
         <v>42</v>
       </c>
@@ -2155,7 +5580,7 @@
         <v>7.5799999999999999E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -2172,7 +5597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A61" s="1" t="s">
         <v>81</v>
       </c>
@@ -2193,7 +5618,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A62" s="1" t="s">
         <v>135</v>
       </c>
@@ -2207,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A63" s="1" t="s">
         <v>137</v>
       </c>
@@ -2221,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
         <v>84</v>
       </c>
@@ -2235,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
@@ -2256,7 +5681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -2277,7 +5702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A67" s="1" t="s">
         <v>92</v>
       </c>
@@ -2298,7 +5723,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A68" s="1" t="s">
         <v>93</v>
       </c>
@@ -2319,7 +5744,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A69" s="1" t="s">
         <v>94</v>
       </c>
@@ -2340,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A70" s="1" t="s">
         <v>95</v>
       </c>
@@ -2361,7 +5786,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
@@ -2382,7 +5807,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
@@ -2396,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
@@ -2410,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A74" s="1" t="s">
         <v>99</v>
       </c>
@@ -2424,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A75" s="1" t="s">
         <v>152</v>
       </c>
@@ -2444,8 +5869,11 @@
       <c r="F75" s="4">
         <v>133.30000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G75" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A76" s="1" t="s">
         <v>104</v>
       </c>
@@ -2459,14 +5887,14 @@
         <v>0</v>
       </c>
       <c r="E76" s="4">
-        <f>F76/F24</f>
-        <v>0.1744186046511628</v>
+        <f>F76/F$24</f>
+        <v>8.7548638132295714E-2</v>
       </c>
       <c r="F76" s="4">
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A77" s="1" t="s">
         <v>105</v>
       </c>
@@ -2480,14 +5908,14 @@
         <v>0</v>
       </c>
       <c r="E77" s="4">
-        <f>F77/F24</f>
-        <v>0.32093023255813952</v>
+        <f>F77/F$24</f>
+        <v>0.16108949416342414</v>
       </c>
       <c r="F77" s="4">
         <v>828</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A78" s="1" t="s">
         <v>106</v>
       </c>
@@ -2501,14 +5929,14 @@
         <v>0</v>
       </c>
       <c r="E78" s="4">
-        <f>F78/F24</f>
-        <v>0.20155038759689922</v>
+        <f t="shared" ref="E78:E81" si="0">F78/F$24</f>
+        <v>0.10116731517509728</v>
       </c>
       <c r="F78" s="4">
         <v>520</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A79" s="1" t="s">
         <v>107</v>
       </c>
@@ -2522,14 +5950,14 @@
         <v>0</v>
       </c>
       <c r="E79" s="6">
-        <f>F79/F24</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.50194552529182879</v>
       </c>
       <c r="F79" s="4">
         <v>2580</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A80" s="1" t="s">
         <v>108</v>
       </c>
@@ -2543,14 +5971,14 @@
         <v>0</v>
       </c>
       <c r="E80" s="4">
-        <f>F80/F24</f>
-        <v>9.0697674418604657E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5525291828793772E-2</v>
       </c>
       <c r="F80" s="4">
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A81" s="1" t="s">
         <v>109</v>
       </c>
@@ -2564,14 +5992,14 @@
         <v>0</v>
       </c>
       <c r="E81" s="4">
-        <f>F81/F24</f>
-        <v>6.9767441860465115E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.5019455252918289E-3</v>
       </c>
       <c r="F81" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A82" s="1" t="s">
         <v>110</v>
       </c>
@@ -2585,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A83" s="1" t="s">
         <v>111</v>
       </c>
@@ -2599,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A84" s="1" t="s">
         <v>112</v>
       </c>
@@ -2613,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A85" s="1" t="s">
         <v>154</v>
       </c>
@@ -2626,15 +6054,18 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85">
-        <f>F85/F24</f>
-        <v>0.19767441860465115</v>
+      <c r="E85" s="4">
+        <f t="shared" ref="E85" si="1">F85/F$24</f>
+        <v>9.9221789883268477E-2</v>
       </c>
       <c r="F85" s="4">
         <v>510</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A86" s="1" t="s">
         <v>120</v>
       </c>
@@ -2645,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A87" s="1" t="s">
         <v>121</v>
       </c>
@@ -2659,7 +6090,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A88" s="1" t="s">
         <v>122</v>
       </c>
@@ -2673,7 +6104,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A89" s="1" t="s">
         <v>123</v>
       </c>
@@ -2687,7 +6118,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A90" s="1" t="s">
         <v>124</v>
       </c>
@@ -2701,7 +6132,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A91" s="1" t="s">
         <v>125</v>
       </c>
@@ -2715,7 +6146,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A92" s="1" t="s">
         <v>126</v>
       </c>
@@ -2729,7 +6160,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A93" s="1" t="s">
         <v>127</v>
       </c>
@@ -2740,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A94" s="1" t="s">
         <v>128</v>
       </c>
@@ -2751,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A95" s="1" t="s">
         <v>129</v>
       </c>
@@ -2762,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A96" s="1" t="s">
         <v>156</v>
       </c>
@@ -2776,7 +6207,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -2793,7 +6224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A99" s="1" t="s">
         <v>35</v>
       </c>
@@ -2801,7 +6232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +6247,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A102" s="1" t="s">
         <v>75</v>
       </c>
@@ -2824,7 +6255,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A103" s="1" t="s">
         <v>77</v>
       </c>
@@ -2832,7 +6263,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A104" s="1" t="s">
         <v>79</v>
       </c>
@@ -2869,7 +6300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB67DD-7C8D-4584-95B9-C1945997EB84}">
   <dimension ref="A1:G104"/>
   <sheetViews>
@@ -2877,19 +6308,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="20.46875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.05859375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.52734375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2909,7 +6340,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2923,7 +6354,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2934,7 +6365,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2945,7 +6376,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2962,7 +6393,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2979,7 +6410,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -2993,7 +6424,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -3007,7 +6438,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>239</v>
       </c>
@@ -3024,7 +6455,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>133</v>
       </c>
@@ -3041,7 +6472,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>134</v>
       </c>
@@ -3058,7 +6489,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>171</v>
       </c>
@@ -3075,7 +6506,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
         <v>175</v>
       </c>
@@ -3092,7 +6523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
         <v>163</v>
       </c>
@@ -3109,7 +6540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
         <v>189</v>
       </c>
@@ -3127,7 +6558,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
         <v>192</v>
       </c>
@@ -3142,7 +6573,7 @@
         <v>0.70472000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -3162,7 +6593,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -3182,7 +6613,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
@@ -3199,7 +6630,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
@@ -3213,7 +6644,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" s="5" t="s">
         <v>231</v>
       </c>
@@ -3231,7 +6662,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -3245,7 +6676,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
@@ -3266,7 +6697,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -3280,7 +6711,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26" s="5" t="s">
         <v>139</v>
       </c>
@@ -3301,7 +6732,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="s">
         <v>140</v>
       </c>
@@ -3321,7 +6752,7 @@
         <v>15851</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
@@ -3335,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" s="5" t="s">
         <v>141</v>
       </c>
@@ -3356,7 +6787,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" s="5" t="s">
         <v>142</v>
       </c>
@@ -3380,7 +6811,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31" s="5" t="s">
         <v>143</v>
       </c>
@@ -3394,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
@@ -3411,7 +6842,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="5" t="s">
         <v>53</v>
       </c>
@@ -3425,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" s="5" t="s">
         <v>54</v>
       </c>
@@ -3439,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" s="5" t="s">
         <v>55</v>
       </c>
@@ -3453,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>164</v>
       </c>
@@ -3467,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" s="5" t="s">
         <v>57</v>
       </c>
@@ -3488,7 +6919,7 @@
         <v>115.7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" s="5" t="s">
         <v>227</v>
       </c>
@@ -3502,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" s="5" t="s">
         <v>228</v>
       </c>
@@ -3516,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" s="5" t="s">
         <v>229</v>
       </c>
@@ -3530,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" s="5" t="s">
         <v>144</v>
       </c>
@@ -3544,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" s="5" t="s">
         <v>145</v>
       </c>
@@ -3558,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>146</v>
       </c>
@@ -3572,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" s="5" t="s">
         <v>147</v>
       </c>
@@ -3586,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" s="5" t="s">
         <v>148</v>
       </c>
@@ -3600,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>149</v>
       </c>
@@ -3614,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47" s="5" t="s">
         <v>150</v>
       </c>
@@ -3628,7 +7059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A48" s="5" t="s">
         <v>151</v>
       </c>
@@ -3642,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A49" s="5" t="s">
         <v>38</v>
       </c>
@@ -3653,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A50" s="5" t="s">
         <v>167</v>
       </c>
@@ -3664,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A51" s="5" t="s">
         <v>40</v>
       </c>
@@ -3675,7 +7106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52" s="5" t="s">
         <v>181</v>
       </c>
@@ -3696,7 +7127,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A53" s="5" t="s">
         <v>159</v>
       </c>
@@ -3710,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A54" s="5" t="s">
         <v>160</v>
       </c>
@@ -3721,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A55" s="5" t="s">
         <v>195</v>
       </c>
@@ -3735,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A56" s="5" t="s">
         <v>197</v>
       </c>
@@ -3749,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A57" s="5" t="s">
         <v>234</v>
       </c>
@@ -3766,7 +7197,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A58" s="5" t="s">
         <v>42</v>
       </c>
@@ -3780,7 +7211,7 @@
         <v>6.9399999999999996E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A60" s="5" t="s">
         <v>0</v>
       </c>
@@ -3797,7 +7228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A61" s="5" t="s">
         <v>81</v>
       </c>
@@ -3818,7 +7249,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A62" s="5" t="s">
         <v>135</v>
       </c>
@@ -3832,7 +7263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A63" s="5" t="s">
         <v>137</v>
       </c>
@@ -3846,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A64" s="5" t="s">
         <v>84</v>
       </c>
@@ -3860,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A65" s="5" t="s">
         <v>90</v>
       </c>
@@ -3881,7 +7312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A66" s="5" t="s">
         <v>91</v>
       </c>
@@ -3902,7 +7333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A67" s="5" t="s">
         <v>92</v>
       </c>
@@ -3923,7 +7354,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A68" s="5" t="s">
         <v>93</v>
       </c>
@@ -3944,7 +7375,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A69" s="5" t="s">
         <v>94</v>
       </c>
@@ -3965,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A70" s="5" t="s">
         <v>95</v>
       </c>
@@ -3986,7 +7417,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A71" s="5" t="s">
         <v>96</v>
       </c>
@@ -4007,7 +7438,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A72" s="5" t="s">
         <v>97</v>
       </c>
@@ -4021,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A73" s="5" t="s">
         <v>98</v>
       </c>
@@ -4035,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A74" s="5" t="s">
         <v>99</v>
       </c>
@@ -4049,7 +7480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A75" s="5" t="s">
         <v>152</v>
       </c>
@@ -4070,7 +7501,7 @@
         <v>133.30000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A76" s="5" t="s">
         <v>104</v>
       </c>
@@ -4091,7 +7522,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A77" s="5" t="s">
         <v>105</v>
       </c>
@@ -4112,7 +7543,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A78" s="5" t="s">
         <v>106</v>
       </c>
@@ -4133,7 +7564,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A79" s="5" t="s">
         <v>107</v>
       </c>
@@ -4154,7 +7585,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A80" s="5" t="s">
         <v>108</v>
       </c>
@@ -4175,7 +7606,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A81" s="5" t="s">
         <v>109</v>
       </c>
@@ -4196,7 +7627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A82" s="5" t="s">
         <v>110</v>
       </c>
@@ -4210,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A83" s="5" t="s">
         <v>111</v>
       </c>
@@ -4224,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A84" s="5" t="s">
         <v>112</v>
       </c>
@@ -4238,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A85" s="5" t="s">
         <v>154</v>
       </c>
@@ -4259,7 +7690,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A86" s="5" t="s">
         <v>120</v>
       </c>
@@ -4270,7 +7701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A87" s="5" t="s">
         <v>121</v>
       </c>
@@ -4284,7 +7715,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A88" s="5" t="s">
         <v>122</v>
       </c>
@@ -4298,7 +7729,7 @@
         <v>7.0400000000000004E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A89" s="5" t="s">
         <v>123</v>
       </c>
@@ -4312,7 +7743,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A90" s="5" t="s">
         <v>124</v>
       </c>
@@ -4326,7 +7757,7 @@
         <v>3.5799999999999998E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A91" s="5" t="s">
         <v>125</v>
       </c>
@@ -4340,7 +7771,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A92" s="5" t="s">
         <v>126</v>
       </c>
@@ -4354,7 +7785,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A93" s="5" t="s">
         <v>127</v>
       </c>
@@ -4365,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A94" s="5" t="s">
         <v>128</v>
       </c>
@@ -4376,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A95" s="5" t="s">
         <v>129</v>
       </c>
@@ -4387,7 +7818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A96" s="5" t="s">
         <v>156</v>
       </c>
@@ -4401,7 +7832,7 @@
         <v>1.61E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -4418,7 +7849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A99" s="5" t="s">
         <v>35</v>
       </c>
@@ -4426,7 +7857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A101" s="5" t="s">
         <v>0</v>
       </c>
@@ -4441,7 +7872,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A102" s="5" t="s">
         <v>75</v>
       </c>
@@ -4449,7 +7880,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A103" s="5" t="s">
         <v>77</v>
       </c>
@@ -4457,7 +7888,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A104" s="5" t="s">
         <v>79</v>
       </c>
@@ -4494,65 +7925,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-14T20:30:29+00:00</Document_x0020_Creation_x0020_Date>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <e3f09c3df709400db2417a7161762d62 xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e3f09c3df709400db2417a7161762d62>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ba80736-48fa-4d73-aaff-bacaeeed013a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C107526348C97345843FB1F7E3F5FF14" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f5efa0b4590ceb4068c523eef838cbf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="2ba80736-48fa-4d73-aaff-bacaeeed013a" xmlns:ns6="41d9f072-86bf-4c63-b117-debf50ff4701" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d32b47d5805bf9e4ccfb00021215c68" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5025,7 +8397,105 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-14T20:30:29+00:00</Document_x0020_Creation_x0020_Date>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <e3f09c3df709400db2417a7161762d62 xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e3f09c3df709400db2417a7161762d62>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ba80736-48fa-4d73-aaff-bacaeeed013a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9665CC82-408B-4FD3-ABA1-0EF532DE31C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="2ba80736-48fa-4d73-aaff-bacaeeed013a"/>
+    <ds:schemaRef ds:uri="41d9f072-86bf-4c63-b117-debf50ff4701"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C4A2D8C-C5B5-46A0-8FC1-3730CC1A83D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DC26B68-A11F-428F-9051-23DC6334A810}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA939294-F21F-45CD-81A6-3A616888DAC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5035,26 +8505,7 @@
     <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
     <ds:schemaRef ds:uri="93237db7-bebb-43bb-9414-bc3313990c09"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="2ba80736-48fa-4d73-aaff-bacaeeed013a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DC26B68-A11F-428F-9051-23DC6334A810}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C4A2D8C-C5B5-46A0-8FC1-3730CC1A83D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9665CC82-408B-4FD3-ABA1-0EF532DE31C5}"/>
 </file>